--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Build a Pile of Cubes</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Find the Vowels</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>In progress - gave up</t>
   </si>
 </sst>
 </file>
@@ -83,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,12 +393,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,21 +418,24 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -432,15 +443,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
